--- a/prenomina/Temp/Empleados_Ausentes.xlsx
+++ b/prenomina/Temp/Empleados_Ausentes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Empresa</t>
   </si>
@@ -38,130 +38,73 @@
     <t xml:space="preserve">ADMINISTRACION Y FINANZAS     </t>
   </si>
   <si>
-    <t>FERNANDO ROSADO SANTIAGO</t>
+    <t>JOSEFINA PREZA PEREZ</t>
   </si>
   <si>
     <t xml:space="preserve">HABITACIONES TORRE 1          </t>
   </si>
   <si>
-    <t>ANA ROSA GOMEZ GONZALEZ</t>
-  </si>
-  <si>
     <t>CEZAR OCTAVIO ZEPEDA SANCHEZ</t>
   </si>
   <si>
     <t xml:space="preserve">COMERCIALIZACION Y VENTAS     </t>
   </si>
   <si>
-    <t>MICAELA LOPEZ ADO¥O</t>
-  </si>
-  <si>
-    <t>JESUS ASCENCION GIL VELADOR</t>
+    <t>FRANCISCO AGUIRRE SANCHEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTAURANTES Y BAR HR         </t>
+  </si>
+  <si>
+    <t>JUAN CARLOS SANCHEZ ARREOLA</t>
+  </si>
+  <si>
+    <t>GABRIEL LIRA GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTIVOS                    </t>
+  </si>
+  <si>
+    <t>JOSE JOAQUIN RODRIGUEZ MEDINA</t>
+  </si>
+  <si>
+    <t>JUAN CRISTOBAL PRADO ROBLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTENIMIENTO HR              </t>
+  </si>
+  <si>
+    <t>PEDRO ANTONIO CAMBEROS ALCALA</t>
+  </si>
+  <si>
+    <t>SAULO GUSTAVO DANIEL HIDALGO VAZQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURIDAD HR                  </t>
+  </si>
+  <si>
+    <t>CONSTANCIO SOTO ORTEGA</t>
   </si>
   <si>
     <t xml:space="preserve">SEGURIDAD HP                  </t>
   </si>
   <si>
-    <t>AZUCENA HERNANDEZ LANGARICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HABITACIONES TORRE 2          </t>
-  </si>
-  <si>
-    <t>FRANCISCO AGUIRRE SANCHEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESTAURANTES Y BAR HR         </t>
-  </si>
-  <si>
-    <t>GABRIEL LIRA GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECTIVOS                    </t>
-  </si>
-  <si>
-    <t>PATRICIO HERNANDEZ MEDINA</t>
-  </si>
-  <si>
-    <t>JOSE JOAQUIN RODRIGUEZ MEDINA</t>
-  </si>
-  <si>
-    <t>ULISES GONZALEZ COPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVANDERIA HP                 </t>
-  </si>
-  <si>
-    <t>PEDRO ANTONIO CAMBEROS ALCALA</t>
-  </si>
-  <si>
-    <t>AMADA MARTINEZ ARTEAGA</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL GOMEZ LOPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESTAURANTES  Y BAR HP        </t>
-  </si>
-  <si>
-    <t>LEONARDO SILVERIO OROPEZA</t>
-  </si>
-  <si>
-    <t>CARLOS FERNANDO GALINDO VALDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGURIDAD HR                  </t>
-  </si>
-  <si>
-    <t>SONIA ALEJANDRA HERNANDEZ MORALES</t>
+    <t>CARLOS ALBERTO HERRERA GARCIA</t>
   </si>
   <si>
     <t>JUAN GABRIEL MACIEL GARCIA</t>
   </si>
   <si>
-    <t>ANA ELIZABETH MARISCAL ANDRADE</t>
+    <t>VICTOR MANUEL LARA VAZQUEZ</t>
   </si>
   <si>
     <t>EDUARDO FLORES COVARRUBIAS</t>
   </si>
   <si>
-    <t>GABRIEL HERNANDEZ GARCIA</t>
-  </si>
-  <si>
-    <t>MIREYA NOEMI RUIZ PRECIADO</t>
-  </si>
-  <si>
-    <t>OMAR ORLANDO NI¥O DEL RIO</t>
-  </si>
-  <si>
-    <t>ARMANDO ASUNCION DE LEON FLORES</t>
-  </si>
-  <si>
-    <t>MA DE LA LUZ MARTINEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>JAQUELINE RAQUEL SAHAGUN VERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVANDERIA HR                 </t>
-  </si>
-  <si>
-    <t>YASMIN CASTRO OJEDA</t>
-  </si>
-  <si>
-    <t>MESAC MENDEZ MENDEZ</t>
-  </si>
-  <si>
-    <t>ESTEBAN VALDIVIA TRINIDAD</t>
-  </si>
-  <si>
-    <t>BEATRIZ LEONOR MIRAMONTES MACIAS</t>
-  </si>
-  <si>
-    <t>JUAN GILBERTO DOMINGUEZ GUZMAN</t>
-  </si>
-  <si>
-    <t>JONATHAN MANUEL RODRIGUEZ VIDAL</t>
+    <t>EUGENIA FABIOLA RIVERA MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEFONOS HR                  </t>
   </si>
 </sst>
 </file>
@@ -571,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -580,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -589,16 +532,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>610</v>
+        <v>2543</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -607,13 +550,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2543</v>
+        <v>3874</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -625,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3302</v>
+        <v>3875</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -643,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3717</v>
+        <v>3913</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -661,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3821</v>
+        <v>4071</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -679,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>3874</v>
+        <v>4121</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -688,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -697,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>3913</v>
+        <v>4171</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>13</v>
@@ -715,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>3962</v>
+        <v>4190</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -733,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>4071</v>
+        <v>4191</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -751,13 +694,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>4122</v>
+        <v>4256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -769,16 +712,16 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4171</v>
+        <v>4294</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -787,16 +730,16 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>4172</v>
+        <v>4327</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
         <v>8</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -805,16 +748,16 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>4247</v>
+        <v>4366</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -823,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>4255</v>
+        <v>4468</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -837,309 +780,71 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>4270</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>4271</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="4"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>4294</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>4333</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>4366</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
+      <c r="D22" s="4"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>4400</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>4425</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
+      <c r="D24" s="4"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>4450</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
+      <c r="D25" s="4"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>4451</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
+      <c r="D26" s="4"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>4454</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
+      <c r="D27" s="4"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>4469</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
+      <c r="D28" s="4"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>4476</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
+      <c r="D29" s="4"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>4485</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>4486</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
+      <c r="D31" s="4"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>4492</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>13</v>
-      </c>
+      <c r="D32" s="4"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>4498</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
+      <c r="D33" s="4"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>4499</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
+      <c r="D34" s="4"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
